--- a/src/main/resources/template/static/excel/模板-企业.xlsx
+++ b/src/main/resources/template/static/excel/模板-企业.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -121,69 +121,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +145,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,70 +176,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,36 +287,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,49 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,73 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,6 +527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,32 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,22 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +598,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>

--- a/src/main/resources/template/static/excel/模板-企业.xlsx
+++ b/src/main/resources/template/static/excel/模板-企业.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>企业名称</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>互联网</t>
+  </si>
+  <si>
+    <t>2000-01-02</t>
   </si>
   <si>
     <t>1000</t>
@@ -81,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -121,6 +124,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -130,68 +261,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,74 +270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,25 +290,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,157 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +495,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +528,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,23 +567,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,152 +601,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,13 +1108,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
@@ -1132,7 +1133,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1150,7 +1151,7 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1167,34 +1168,34 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
-        <v>36526</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>100085</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
         <v>18</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="7:7">
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
